--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5668082022.4\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7C760-D13C-4B11-927C-2FE071AB607C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="23715" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generos" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="generos" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="generos" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\rayca\Downloads\Steam Store Games (Clean dataset)-20230326T001607Z-001\Steam Store Games (Clean dataset)\trabaloh\generos.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -140,8 +146,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +194,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF111111"/>
       <color rgb="FF212121"/>
-      <color rgb="FF111111"/>
       <color rgb="FF242424"/>
       <color rgb="FF1B1921"/>
       <color rgb="FF1C1C1C"/>
@@ -197,6 +203,14 @@
       <color rgb="FF000000"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -227,9 +241,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="47"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="147"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="47"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -239,51 +262,58 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>generos!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>281</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>generos!$A$3:$A$11</c:f>
+              <c:f>generos!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Action</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Strategy</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Action;Indie</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Action;Adventure</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Adventure</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Casual</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Adventure;Indie</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Action;Adventure;Indie</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Simulation</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>RPG</c:v>
                 </c:pt>
               </c:strCache>
@@ -291,44 +321,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>generos!$B$3:$B$11</c:f>
+              <c:f>generos!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B30B-4A97-9E22-CD72CCAE6388}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
@@ -336,9 +379,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -349,9 +394,18 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="48"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -374,13 +428,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -395,6 +451,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'mal avaliados'!$A$2:$A$6</c:f>
@@ -442,10 +520,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C02-46AF-AD7C-3DF71B736934}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
         <c:axId val="140153984"/>
         <c:axId val="140155520"/>
@@ -455,14 +544,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="140155520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="140155520"/>
@@ -473,6 +566,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="140153984"/>
         <c:crosses val="autoZero"/>
@@ -485,6 +579,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -500,9 +596,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="47"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="147"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="47"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -510,6 +615,7 @@
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -524,6 +630,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>desenvolvedoras!$A$2:$A$6</c:f>
@@ -571,9 +699,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A79A-4DED-95A6-CFA2ACEB3A17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
@@ -585,23 +723,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139468160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="139468160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139466624"/>
         <c:crosses val="autoZero"/>
@@ -609,6 +753,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -619,18 +765,29 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="47"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="147"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="47"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -645,6 +802,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'mal avaliados'!$A$2:$A$6</c:f>
@@ -692,10 +871,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B52E-4AF9-937E-3BCEF716F66F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
         <c:axId val="139414528"/>
         <c:axId val="139424512"/>
@@ -705,14 +895,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139424512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="139424512"/>
@@ -723,6 +917,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="139414528"/>
         <c:crosses val="autoZero"/>
@@ -730,6 +925,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -740,9 +937,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="47"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="147"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="47"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -750,6 +956,7 @@
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -764,6 +971,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'mais caros'!$A$2:$A$6</c:f>
@@ -811,9 +1040,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C60-4050-8483-8F5489678DE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:axId val="139559680"/>
@@ -824,23 +1063,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139561216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="139561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139559680"/>
         <c:crosses val="autoZero"/>
@@ -848,6 +1093,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -858,9 +1105,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="47"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="147"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="47"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -877,6 +1133,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -900,7 +1157,18 @@
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A740-48C3-8915-26C4C6469CBD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -910,9 +1178,38 @@
                   <c:y val="4.7449584816133747E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A740-48C3-8915-26C4C6469CBD}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -961,9 +1258,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A740-48C3-8915-26C4C6469CBD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="139843072"/>
         <c:axId val="139844608"/>
@@ -973,23 +1280,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139844608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="139844608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139843072"/>
         <c:crosses val="autoZero"/>
@@ -997,6 +1310,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1007,9 +1322,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="48"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1029,18 +1353,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>generos!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>281</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1051,39 +1371,50 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>generos!$A$3:$A$11</c:f>
+              <c:f>generos!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Action</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Strategy</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Action;Indie</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Action;Adventure</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Adventure</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Casual</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Adventure;Indie</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Action;Adventure;Indie</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Simulation</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>RPG</c:v>
                 </c:pt>
               </c:strCache>
@@ -1091,44 +1422,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>generos!$B$3:$B$11</c:f>
+              <c:f>generos!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-878A-4DF1-8A5A-4C14BFD63FFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
@@ -1146,6 +1490,7 @@
           <c:h val="0.86052676967994357"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1158,6 +1503,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1174,9 +1521,18 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="48"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1199,13 +1555,25 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8245614035087717E-2"/>
+          <c:y val="0.15813262472913781"/>
+          <c:w val="0.95175438596491224"/>
+          <c:h val="0.77436725930540007"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1220,6 +1588,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>desenvolvedoras!$A$2:$A$6</c:f>
@@ -1267,10 +1657,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EB5-4815-8EE5-ECB6CDCE395F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
         <c:axId val="140060160"/>
         <c:axId val="140061696"/>
@@ -1280,14 +1681,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="140061696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="140061696"/>
@@ -1298,6 +1703,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="140060160"/>
         <c:crosses val="autoZero"/>
@@ -1310,6 +1716,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1325,9 +1733,18 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="48"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1350,13 +1767,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1371,6 +1790,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -1381,7 +1801,18 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4A3E-41FF-AA49-0E1E7D123692}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1392,7 +1823,18 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4A3E-41FF-AA49-0E1E7D123692}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1403,7 +1845,18 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4A3E-41FF-AA49-0E1E7D123692}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1414,7 +1867,18 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4A3E-41FF-AA49-0E1E7D123692}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -1425,10 +1889,39 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4A3E-41FF-AA49-0E1E7D123692}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1477,9 +1970,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4A3E-41FF-AA49-0E1E7D123692}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
@@ -1491,14 +1994,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="140112256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="140112256"/>
@@ -1509,6 +2016,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="140085888"/>
         <c:crosses val="autoZero"/>
@@ -1521,6 +2029,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1536,9 +2046,18 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:style val="48"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1556,13 +2075,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1577,6 +2098,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'mais caros'!$A$2:$A$6</c:f>
@@ -1624,10 +2167,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0F4-4147-9780-627FAE2030EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
         <c:axId val="140132352"/>
         <c:axId val="140133888"/>
@@ -1637,14 +2191,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="140133888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="140133888"/>
@@ -1655,6 +2213,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="140132352"/>
         <c:crosses val="autoZero"/>
@@ -1667,6 +2226,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1698,7 +2259,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1733,7 +2300,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1768,7 +2341,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1803,7 +2382,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1838,7 +2423,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1860,20 +2451,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>166699</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317361</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1" descr="steam-logo-1 – PNG e Vetor - Download de Logo"/>
+        <xdr:cNvPr id="3073" name="Picture 1" descr="steam-logo-1 – PNG e Vetor - Download de Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1887,8 +2484,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5200650" y="104775"/>
-          <a:ext cx="4352925" cy="1395424"/>
+          <a:off x="5810251" y="190500"/>
+          <a:ext cx="4870310" cy="1605933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1900,20 +2497,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>318491</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1930,20 +2533,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>102598</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>442906</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1960,20 +2569,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>444039</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60928</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1990,20 +2605,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173341</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2020,20 +2641,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184676</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2135,13 +2762,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B11" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:B11" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="Genero" name="Genero">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Genero" name="Genero">
       <xmlColumnPr mapId="1" xpath="/DATA/ROW/Genero" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Quantidade_jogos" name="Quantidade_jogos">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Quantidade_jogos" name="Quantidade_jogos">
       <xmlColumnPr mapId="1" xpath="/DATA/ROW/Quantidade_jogos" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -2150,44 +2777,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela14" displayName="Tabela14" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela14" displayName="Tabela14" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Desenvolvedora"/>
-    <tableColumn id="2" name="Quantidade_jogos"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Desenvolvedora"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantidade_jogos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela5" displayName="Tabela5" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Titulo_do_Jogo"/>
-    <tableColumn id="2" name="Avaliacoes_negativas"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Titulo_do_Jogo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Avaliacoes_negativas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela13" displayName="Tabela13" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Titulo_do_jogo"/>
-    <tableColumn id="2" name="Preco"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Titulo_do_jogo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Preco"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela15" displayName="Tabela15" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Titulo_do_Jogo"/>
-    <tableColumn id="2" name="Media_de_tempo_jogado"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Titulo_do_Jogo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Media_de_tempo_jogado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2196,7 +2823,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2234,9 +2861,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2268,9 +2895,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2302,9 +2947,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2477,20 +3140,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2506,7 +3169,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2514,7 +3177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +3185,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2530,7 +3193,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +3201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +3217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2562,7 +3225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2570,7 +3233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2588,20 +3251,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +3280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2625,7 +3288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2633,7 +3296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +3304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2659,20 +3322,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2680,7 +3343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +3351,7 @@
         <v>402313</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +3359,7 @@
         <v>142079</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2704,7 +3367,7 @@
         <v>77169</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2712,7 +3375,7 @@
         <v>56523</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2731,19 +3394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2751,7 +3414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2759,7 +3422,7 @@
         <v>95.99</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2767,7 +3430,7 @@
         <v>78.989999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2775,7 +3438,7 @@
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +3446,7 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2801,20 +3464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2822,7 +3485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -2830,7 +3493,7 @@
         <v>95245</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -2838,7 +3501,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2846,7 +3509,7 @@
         <v>28897</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2854,7 +3517,7 @@
         <v>23944</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2872,16 +3535,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2908,8 +3571,14 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2936,8 +3605,14 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2964,8 +3639,14 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2992,8 +3673,14 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3020,8 +3707,14 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3048,8 +3741,14 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3076,8 +3775,14 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3104,8 +3809,14 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3132,8 +3843,14 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3160,8 +3877,14 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3188,8 +3911,14 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3216,8 +3945,14 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3244,8 +3979,14 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3272,8 +4013,14 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3300,8 +4047,14 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3328,8 +4081,14 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3356,8 +4115,14 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3384,8 +4149,14 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3412,8 +4183,14 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3440,8 +4217,14 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3468,8 +4251,14 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3496,8 +4285,14 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3524,8 +4319,14 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3552,8 +4353,14 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3580,8 +4387,14 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3608,8 +4421,14 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3636,8 +4455,14 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3664,8 +4489,14 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3692,8 +4523,14 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3720,8 +4557,14 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3748,8 +4591,14 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3776,8 +4625,14 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3804,8 +4659,14 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3832,8 +4693,14 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3860,8 +4727,14 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3888,8 +4761,14 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3916,8 +4795,14 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3944,8 +4829,14 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3972,8 +4863,14 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4000,8 +4897,14 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4028,6 +4931,556 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
